--- a/InputData/indst/CoNEPPpCAPS/Cal of Nutritionally Equiv Plant Products per Cal Animal Prd Shifted.xlsx
+++ b/InputData/indst/CoNEPPpCAPS/Cal of Nutritionally Equiv Plant Products per Cal Animal Prd Shifted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ct/indst/conepppcaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3C5C53-D7E0-484C-89D8-1E1F531A22CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3594E8-46AC-774D-9B2C-39EEB2D0BA0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="2900" windowWidth="24100" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4700" yWindow="2180" windowWidth="24100" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -471,6 +471,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -821,6 +822,9 @@
       <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C1" s="19">
+        <v>44307</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
